--- a/docs/mcode-r4/obf-lab-ComprehensiveMetabolic2000SerumOrPlasmaPanel.xlsx
+++ b/docs/mcode-r4/obf-lab-ComprehensiveMetabolic2000SerumOrPlasmaPanel.xlsx
@@ -163,7 +163,7 @@
   </si>
   <si>
     <t>Represents a comprehensive metabolic 2000 panel (CMP) from serum or plasma, which measures various components such as glucose, electrolytes, kidney function, and liver function. The components of this panel are not entirely standardized, so the definition of the CMP includes tests that are optional, or performed by certain laboratories but not others. Therefore, instances typically will include a subset of the listed panel members. While recognizing scalability limitations, in this case, panel member is described by its own FHIR profile.
-Note to FHIR implementers: The Argonaut and US Core IGs both state that panels (related groups of observations) should be represented by the DiagnosticReport resource. This specification deviates from this approach by using Observation for panels. This is because panels can contain other panels, but a DiagnosticReport cannot contain other DiagnosticReports. Nested panels are, in fact, quite common in LOINC (see 39135-9 Wound assessment panel for an example of a deeply nested panel). To represent nested panels, each sub-panel _must_ be an Observation. Of course, any sub-panel can also be a stand-alone panel, as well. Following the Argonaut/US Core recommended approach of using DiagnosticReport would imply that many or perhaps all panels would have to be represented twice: once as an Observation to permit the panel to be used as a sub-panel, and once as a DiagnosticReport to permit it to be used as a top-level panel. The authors of this specification believe there is little added value in representing panels as DiagnosticReports when Observation provides additional opportunity for nesting, and equivalent expressive power.</t>
+Note to FHIR implementers: US-Core v3 states that 'Laboratory results are grouped and summarized using the DiagnosticReport resource which typically reference Observation resource(s). Each Observation resource represents an individual laboratory test or a “nested” panel which references other observations.' Consistent with this guidance, the current profile can be one of the nested Observations within a DiagnosticReport. Alternatively, each sub-Observation in this profile can be added individually to a DiagnosticReport. Both methods are consistent with guidance in US Core v3.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -445,7 +445,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1274,7 +1274,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/obf-lab-ComprehensiveMetabolic2000SerumOrPlasmaPanel.xlsx
+++ b/docs/mcode-r4/obf-lab-ComprehensiveMetabolic2000SerumOrPlasmaPanel.xlsx
@@ -153,7 +153,7 @@
     <t>obf-lab-ComprehensiveMetabolic2000SerumOrPlasmaPanel</t>
   </si>
   <si>
-    <t>Represents a comprehensive metabolic 2000 panel (CMP) from serum or plasma, which measures various components such as glucose, electrolytes, kidney function, and liver function. The components of this panel are not entirely standardized, so the definition of the CMP includes tests that are optional, or performed by certain laboratories but not others. Therefore, instances typically will include a subset of the listed panel members. While recognizing scalability limitations, in this case, panel member is described by its own FHIR profile.</t>
+    <t>Represents a comprehensive metabolic 2000 panel (CMP) from serum or plasma, which measures various components such as glucose, electrolytes, kidney function, and liver function. The components of this panel are not entirely standardized, so the definition of the CMP includes tests that are optional, or performed by certain laboratories but not others. Therefore, instances typically will include a subset of the listed panel members.</t>
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
